--- a/main/static/records/Nursery.xlsx
+++ b/main/static/records/Nursery.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0063</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161204</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">09277943630</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0188</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161197</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t xml:space="preserve">09213994595</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diga</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t xml:space="preserve">09091880345</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0014</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161182</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t xml:space="preserve">09178952975</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0153</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161175</t>
   </si>
   <si>
@@ -166,6 +181,9 @@
     <t xml:space="preserve">09461417236</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0253</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161226</t>
   </si>
   <si>
@@ -185,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">09397505131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-0243</t>
   </si>
 </sst>
 </file>
@@ -315,22 +336,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,158 +402,179 @@
       <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
